--- a/single_water_bridges_75.xlsx
+++ b/single_water_bridges_75.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jihan\Documents\Uni\Fall 2022\CHE 293\Project\Water bridges\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25BBCA61-74B4-45B7-AC2E-18902DE88417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{139AD391-068A-4F81-81EC-2F1B7431E1B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="98">
   <si>
     <t>75-r4-50k-140k-merged-22</t>
   </si>
@@ -321,6 +321,12 @@
   </si>
   <si>
     <t>Grey</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>Gold</t>
   </si>
 </sst>
 </file>
@@ -851,7 +857,237 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="33">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD412AA"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE2D892"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD412AA"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF7030A0"/>
@@ -956,6 +1192,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFE2D892"/>
       <color rgb="FFD412AA"/>
       <color rgb="FFFFCCFF"/>
       <color rgb="FFCCCCFF"/>
@@ -1272,7 +1509,7 @@
   <dimension ref="A1:O168"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8:O8"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1471,13 +1708,13 @@
         <v>21</v>
       </c>
       <c r="M7" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="N7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="O7">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -1500,13 +1737,13 @@
         <v>23</v>
       </c>
       <c r="M8" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="N8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="O8">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -1532,6 +1769,15 @@
       <c r="K9" t="s">
         <v>27</v>
       </c>
+      <c r="M9" t="s">
+        <v>53</v>
+      </c>
+      <c r="N9" t="s">
+        <v>93</v>
+      </c>
+      <c r="O9">
+        <v>7</v>
+      </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1555,6 +1801,15 @@
       <c r="K10" t="s">
         <v>14</v>
       </c>
+      <c r="M10" t="s">
+        <v>50</v>
+      </c>
+      <c r="N10" t="s">
+        <v>97</v>
+      </c>
+      <c r="O10">
+        <v>6</v>
+      </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -4733,38 +4988,44 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1048576">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"A0023B0033"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"A0019B0029"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"A0024B0035"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
       <formula>"A0017B0029"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>"A0024B0034"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>"A0018B0042"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="10" operator="equal">
       <formula>"A0019B0031"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
       <formula>"A0018B0041"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+      <formula>"A0006B0035"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13">
-    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="9" operator="equal">
       <formula>"A0024B0034"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K21">
-    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="8" operator="equal">
       <formula>"A0018B0042"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/single_water_bridges_75.xlsx
+++ b/single_water_bridges_75.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jihan\Documents\Uni\Fall 2022\CHE 293\Project\Water bridges\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{139AD391-068A-4F81-81EC-2F1B7431E1B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65BC8DD3-8193-4695-8CA4-691327F69019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="88">
   <si>
     <t>75-r4-50k-140k-merged-22</t>
   </si>
@@ -297,36 +297,6 @@
   </si>
   <si>
     <t>Files</t>
-  </si>
-  <si>
-    <t>Color</t>
-  </si>
-  <si>
-    <t>Green</t>
-  </si>
-  <si>
-    <t>Blue</t>
-  </si>
-  <si>
-    <t>Yellow</t>
-  </si>
-  <si>
-    <t>Purple</t>
-  </si>
-  <si>
-    <t>Pink</t>
-  </si>
-  <si>
-    <t>Orange</t>
-  </si>
-  <si>
-    <t>Grey</t>
-  </si>
-  <si>
-    <t>Red</t>
-  </si>
-  <si>
-    <t>Gold</t>
   </si>
 </sst>
 </file>
@@ -857,14 +827,64 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="33">
+  <dxfs count="44">
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD412AA"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -880,11 +900,61 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFD412AA"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE2D892"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -900,21 +970,41 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="4"/>
+        <color rgb="FFD412AA"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
+          <bgColor rgb="FFFFCCFF"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF7030A0"/>
+        <color theme="0" tint="-0.499984740745262"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFCCCCFF"/>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE2D892"/>
         </patternFill>
       </fill>
     </dxf>
@@ -930,11 +1020,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1080,31 +1170,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color theme="7" tint="-0.499984740745262"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF7030A0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
+          <bgColor rgb="FFE2D892"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1175,6 +1245,16 @@
       <fill>
         <patternFill>
           <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1506,20 +1586,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O168"/>
+  <dimension ref="A1:N168"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="7" max="7" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="13.42578125" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1527,13 +1607,10 @@
         <v>86</v>
       </c>
       <c r="N1" t="s">
-        <v>88</v>
-      </c>
-      <c r="O1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1549,14 +1626,11 @@
       <c r="M2" t="s">
         <v>57</v>
       </c>
-      <c r="N2" t="s">
-        <v>94</v>
-      </c>
-      <c r="O2">
+      <c r="N2">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1582,14 +1656,11 @@
       <c r="M3" t="s">
         <v>14</v>
       </c>
-      <c r="N3" t="s">
-        <v>89</v>
-      </c>
-      <c r="O3">
+      <c r="N3">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1615,14 +1686,11 @@
       <c r="M4" t="s">
         <v>42</v>
       </c>
-      <c r="N4" t="s">
-        <v>92</v>
-      </c>
-      <c r="O4">
+      <c r="N4">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1648,14 +1716,11 @@
       <c r="M5" t="s">
         <v>63</v>
       </c>
-      <c r="N5" t="s">
-        <v>95</v>
-      </c>
-      <c r="O5">
+      <c r="N5">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1681,14 +1746,11 @@
       <c r="M6" t="s">
         <v>30</v>
       </c>
-      <c r="N6" t="s">
-        <v>91</v>
-      </c>
-      <c r="O6">
+      <c r="N6">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1710,14 +1772,11 @@
       <c r="M7" t="s">
         <v>46</v>
       </c>
-      <c r="N7" t="s">
-        <v>96</v>
-      </c>
-      <c r="O7">
+      <c r="N7">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -1739,14 +1798,11 @@
       <c r="M8" t="s">
         <v>33</v>
       </c>
-      <c r="N8" t="s">
-        <v>90</v>
-      </c>
-      <c r="O8">
+      <c r="N8">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -1772,14 +1828,11 @@
       <c r="M9" t="s">
         <v>53</v>
       </c>
-      <c r="N9" t="s">
-        <v>93</v>
-      </c>
-      <c r="O9">
+      <c r="N9">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1804,14 +1857,11 @@
       <c r="M10" t="s">
         <v>50</v>
       </c>
-      <c r="N10" t="s">
-        <v>97</v>
-      </c>
-      <c r="O10">
+      <c r="N10">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -1835,7 +1885,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1859,7 +1909,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -1883,7 +1933,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -1903,7 +1953,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -4988,45 +5038,35 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="duplicateValues" dxfId="22" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K1048576">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
-      <formula>"A0023B0033"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
-      <formula>"A0019B0029"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
-      <formula>"A0024B0035"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
-      <formula>"A0017B0029"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
-      <formula>"A0024B0034"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
-      <formula>"A0018B0042"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="10" operator="equal">
-      <formula>"A0019B0031"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
-      <formula>"A0018B0041"</formula>
-    </cfRule>
+  <conditionalFormatting sqref="K1:M1048576">
     <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>"A0006B0035"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K13">
-    <cfRule type="cellIs" dxfId="21" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+      <formula>"A0023B0033"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+      <formula>"A0019B0029"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+      <formula>"A0024B0035"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>"A0017B0029"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
       <formula>"A0024B0034"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K21">
-    <cfRule type="cellIs" dxfId="20" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
       <formula>"A0018B0042"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="10" operator="equal">
+      <formula>"A0019B0031"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="11" operator="equal">
+      <formula>"A0018B0041"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
